--- a/Anket.xlsx
+++ b/Anket.xlsx
@@ -446,7 +446,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12.71928571428571" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="4.862142857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="I1" s="4" t="n"/>
       <c r="J1" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
@@ -514,32 +514,32 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Евгений пригожин</t>
+          <t>нпнппроорпопропр п\</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Програмист</t>
+          <t>програмист</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Пафос</t>
+          <t>пафос</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>еснпснк5епвыч6сепкар6нисрепи яакычнвмсрепипснрнрпигнас шосагно гнашгн гсн горьтпиртгоь пми мртоьип мртоьи мртоьи мртоьи мрьито мртоь мртоьипмриоьтроьтир оьтим моьрти роьмти оьртми оьртрьтог оьрт</t>
+          <t>ае а аепи амь епирьеп рмаьареп м ьаеп аьрпмевсрепаивсепасртиепарсептсаепамсриепрьампе</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>AgACAgQAAxkBAAINLWWlGA9BgFUCnApQ68bRwgdztug0AAJzxTEb4ZkpUWui6UEwNDuSAQADAgADeAADNAQ.jpg</t>
+          <t>AgACAgQAAxkBAAIqKmXJIabh-sRFt_YCeowL7KiiK6kIAAL_vzEbWJhQUmtun7zW3Il7AQADAgADeQADNAQ.jpg</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>BAACAgQAAxkBAAINL2WlGBnjn6CZxZSx90H4r_5rN2xRAALmEgAC4ZkpUZ_p2u0hcHRHNAQ.mp4</t>
+          <t>BAACAgQAAxkBAAIqLGXJIcJhJiU9AAGxXJBjVIZxKEoX0wAC2Q0AAliYUFK1c-PdkmB67TQE.mp4</t>
         </is>
       </c>
       <c r="H2" s="4" t="b">
@@ -551,17 +551,17 @@
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Bbvhbvhnbc</t>
+          <t>TigidikTigidik228</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>авпавы авпыяирва</t>
+          <t>ывафпщшвафыиощафвыощавыорзищ ыва</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>програмист</t>
+          <t>Програмист</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -571,17 +571,17 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>писчкр нртпомсгоьрилтм онртипмси нртмипоаси нмо6рпешльсвь лден6в7чнлевгсч лневсч горслна</t>
+          <t>пыавщгаывпи щзгра ывпгргапвы</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>AgACAgQAAxkBAAINP2WlGHjjkH-4k-_N6-wcsgABjPK4bgACaL8xG6LNKFGK_NKnV85QeAEAAwIAA3kAAzQE.jpg</t>
+          <t>AgACAgQAAxkBAAIprmXI6rnoBzfZZJY0dSWSE0we1IjwAALZwDEb9YswUvq_E3ncZPPXAQADAgADeQADNAQ.jpg</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>BAACAgQAAxkBAAINQWWlGJfb6A-k_GmBPNJXgW1aas3FAAJPGQACos0oUX6mJe4zES1RNAQ.mp4</t>
+          <t>BAACAgQAAxkBAAIpsGXI6rxt8cLYgzt8OrvcickafqbqAAKlDwACfVw5Usk4CAQStRVmNAQ.mp4</t>
         </is>
       </c>
       <c r="H3" s="4" t="b">
